--- a/PROJ2/Results_SVR/svr12.xlsx
+++ b/PROJ2/Results_SVR/svr12.xlsx
@@ -407,37 +407,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rbf</t>
+          <t>poly</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1445770975.248718</v>
+        <v>60958623.00256411</v>
       </c>
       <c r="D2" t="n">
-        <v>39.0789</v>
+        <v>67.71080000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Saskatchewan / Canada</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -451,34 +451,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3313.128205128205</v>
+        <v>1116.597435897436</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jiangxi / China</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>936</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>934</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -489,34 +489,34 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01370826131431572</v>
+        <v>0.6401004985384136</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>3235</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -531,30 +531,30 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H5" t="n">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -565,30 +565,30 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -599,30 +599,30 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jilin / China</t>
+          <t>Northwest Territories / Canada</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="H7" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>118</v>
+        <v>-11</v>
       </c>
       <c r="L7" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -633,27 +633,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Northwest Territories / Canada</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -667,30 +667,30 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jiangsu / China</t>
+          <t>Australian Capital Territory / Australia</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -701,30 +701,30 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>French Polynesia / France</t>
+          <t>Ningxia / China</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-4</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -735,30 +735,30 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -769,30 +769,30 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tibet / China</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>84</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>15</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Saint Pierre and Miquelon / France</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>-11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -803,30 +803,30 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>New Caledonia / France</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18</v>
-      </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -837,30 +837,30 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fujian / China</t>
+          <t>Gibraltar / United Kingdom</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>368</v>
+        <v>65</v>
       </c>
       <c r="H14" t="n">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -871,27 +871,27 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Qinghai / China</t>
+          <t>South Australia / Australia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v>-110</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>-3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -905,27 +905,27 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Western Australia / Australia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -939,30 +939,30 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Manitoba / Canada</t>
+          <t>Inner Mongolia / China</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="H17" t="n">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="I17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>11</v>
       </c>
-      <c r="J17" t="n">
-        <v>6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -973,30 +973,30 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Congo (Brazzaville)</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>948</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>62095</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="K18" t="n">
-        <v>-1</v>
+        <v>461</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="19">
@@ -1007,15 +1007,15 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
+        <v>49</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Congo (Brazzaville)</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>61</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>63</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1041,27 +1041,27 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1075,30 +1075,30 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Beijing / China</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H21" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1109,30 +1109,30 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Shaanxi / China</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H22" t="n">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1143,15 +1143,15 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1177,30 +1177,30 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1058</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1211,30 +1211,30 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1245,30 +1245,30 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
-        <v>4987</v>
+        <v>88</v>
       </c>
       <c r="I26" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="L26" t="n">
-        <v>2478</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1279,27 +1279,27 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Alberta / Canada</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="H27" t="n">
-        <v>4850</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1313,30 +1313,30 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Chongqing / China</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H28" t="n">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1347,30 +1347,30 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="H29" t="n">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1381,30 +1381,30 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Zhejiang / China</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="H30" t="n">
-        <v>1215</v>
+        <v>2085</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="K30" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="L30" t="n">
-        <v>1176</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="31">
@@ -1415,30 +1415,30 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>44</v>
+        <v>2218</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>77872</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>1229</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>18700</v>
       </c>
     </row>
     <row r="32">
@@ -1449,30 +1449,30 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sint Maarten / Netherlands</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>165</v>
+        <v>-53</v>
       </c>
       <c r="H32" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>31</v>
+        <v>-10</v>
       </c>
       <c r="L32" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1483,30 +1483,30 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="H33" t="n">
-        <v>29705</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1754</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>259</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>23900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1517,30 +1517,30 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aruba / Netherlands</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-0</v>
+        <v>77</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35">
@@ -1551,30 +1551,30 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-2</v>
+        <v>86</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>-0</v>
+        <v>13</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1585,30 +1585,30 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>New South Wales / Australia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>-46</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0</v>
+        <v>-3</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>-0</v>
+        <v>-11</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1619,30 +1619,30 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -1653,30 +1653,30 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>South Australia / Australia</t>
+          <t>Saskatchewan / Canada</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H38" t="n">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1687,30 +1687,30 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1721,30 +1721,30 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>307</v>
+        <v>17208</v>
       </c>
       <c r="H40" t="n">
-        <v>85996</v>
+        <v>105792</v>
       </c>
       <c r="I40" t="n">
-        <v>154</v>
+        <v>3438</v>
       </c>
       <c r="J40" t="n">
-        <v>5391</v>
+        <v>12428</v>
       </c>
       <c r="K40" t="n">
-        <v>185</v>
+        <v>3700</v>
       </c>
       <c r="L40" t="n">
-        <v>63113</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="41">
@@ -1755,30 +1755,30 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Newfoundland and Labrador / Canada</t>
+          <t>Taiwan*</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="H41" t="n">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -1789,27 +1789,27 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>New Brunswick / Canada</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>-0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -1823,30 +1823,30 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Guangxi / China</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>370</v>
+        <v>142</v>
       </c>
       <c r="H43" t="n">
-        <v>254</v>
+        <v>2003</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K43" t="n">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="L43" t="n">
-        <v>252</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44">
@@ -1857,30 +1857,30 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>322</v>
+        <v>-4</v>
       </c>
       <c r="H44" t="n">
-        <v>5147</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>54</v>
+        <v>-2</v>
       </c>
       <c r="L44" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1891,30 +1891,30 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Saint Barthelemy / France</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>80</v>
+        <v>-43</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1925,30 +1925,30 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Inner Mongolia / China</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H46" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -1959,30 +1959,30 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="H47" t="n">
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L47" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1993,30 +1993,30 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="H48" t="n">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2027,30 +2027,30 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gansu / China</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="H49" t="n">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>-0</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="K49" t="n">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -2061,18 +2061,18 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-3</v>
+        <v>91</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2095,21 +2095,21 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Cayman Islands / United Kingdom</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>-0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2129,30 +2129,30 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>398</v>
+        <v>31</v>
       </c>
       <c r="H52" t="n">
-        <v>5955</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2163,30 +2163,30 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-8</v>
+        <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>-0</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -2197,27 +2197,27 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2231,30 +2231,30 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
+        <v>90</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>111</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6599</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>437</v>
+      </c>
+      <c r="K55" t="n">
         <v>13</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>-9</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56">
@@ -2265,30 +2265,30 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1551</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>83836</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>384</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1726</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>681</v>
       </c>
     </row>
     <row r="57">
@@ -2299,30 +2299,30 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nova Scotia / Canada</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>34022</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>148220</v>
       </c>
       <c r="I57" t="n">
-        <v>-1</v>
+        <v>6416</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>14792</v>
       </c>
       <c r="K57" t="n">
-        <v>-2</v>
+        <v>14025</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>48021</v>
       </c>
     </row>
     <row r="58">
@@ -2333,27 +2333,27 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Northwest Territories / Canada</t>
+          <t>Northern Territory / Australia</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>-0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -2367,30 +2367,30 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>New Caledonia / France</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="H59" t="n">
-        <v>3031</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>24</v>
+        <v>-0</v>
       </c>
       <c r="J59" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2401,30 +2401,30 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Tianjin / China</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>-2</v>
+        <v>84</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I60" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>-0</v>
+        <v>12</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
@@ -2435,27 +2435,27 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Western Sahara</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -2469,30 +2469,30 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Heilongjiang / China</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="H62" t="n">
-        <v>484</v>
+        <v>852</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>-0</v>
       </c>
       <c r="J62" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K62" t="n">
-        <v>108</v>
+        <v>-0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -2503,30 +2503,30 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Taiwan*</t>
+          <t>Anhui / China</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="H63" t="n">
-        <v>348</v>
+        <v>990</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="L63" t="n">
-        <v>50</v>
+        <v>984</v>
       </c>
     </row>
     <row r="64">
@@ -2537,30 +2537,30 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hebei / China</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>525</v>
+        <v>127</v>
       </c>
       <c r="H64" t="n">
-        <v>35729</v>
+        <v>328</v>
       </c>
       <c r="I64" t="n">
-        <v>249</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>4177</v>
+        <v>6</v>
       </c>
       <c r="K64" t="n">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65">
@@ -2571,30 +2571,30 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Jiangsu / China</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="I65" t="n">
-        <v>-0</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>631</v>
       </c>
     </row>
     <row r="66">
@@ -2605,27 +2605,27 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Newfoundland and Labrador / Canada</t>
+          <t>Greenland / Denmark</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>271</v>
+        <v>29</v>
       </c>
       <c r="H66" t="n">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -2639,27 +2639,27 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mayotte / France</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>-36</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -2673,18 +2673,18 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Western Sahara</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
@@ -2707,30 +2707,30 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Liaoning / China</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>-0</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
@@ -2741,27 +2741,27 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Saskatchewan / Canada</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>-8</v>
+        <v>52</v>
       </c>
       <c r="H70" t="n">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="I70" t="n">
-        <v>-0</v>
+        <v>-4</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -2775,30 +2775,30 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sint Maarten / Netherlands</t>
+          <t>West Bank and Gaza</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="H71" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L71" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
@@ -2809,27 +2809,27 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
+        <v>83</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>98</v>
+      </c>
+      <c r="H72" t="n">
         <v>16</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -2843,30 +2843,30 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I73" t="n">
         <v>-0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -2877,30 +2877,30 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Liaoning / China</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="H74" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="L74" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2911,30 +2911,30 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ningxia / China</t>
+          <t>Macau / China</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="H75" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2945,27 +2945,27 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -2979,18 +2979,18 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Holy See</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3013,27 +3013,27 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Saskatchewan / Canada</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H78" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -3047,30 +3047,30 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="H79" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-0</v>
+        <v>-2</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L79" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3081,27 +3081,27 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -3115,30 +3115,30 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="I81" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K81" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -3149,30 +3149,30 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>-0</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -3183,30 +3183,30 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>-0</v>
+        <v>17</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
@@ -3217,27 +3217,27 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Henan / China</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="H84" t="n">
-        <v>1271</v>
+        <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -3251,30 +3251,30 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Yunnan / China</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H85" t="n">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
         <v>2</v>
       </c>
-      <c r="J85" t="n">
-        <v>3</v>
-      </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3285,27 +3285,27 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>-6</v>
+        <v>59</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>-0</v>
+        <v>10</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -3319,15 +3319,15 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>New Brunswick / Canada</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>-7</v>
+        <v>-19</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>-0</v>
+        <v>-5</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -3353,27 +3353,27 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Bermuda / United Kingdom</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>-0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -3387,18 +3387,18 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Newfoundland and Labrador / Canada</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I89" t="n">
         <v>-0</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -3421,27 +3421,27 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="H90" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>8</v>
+        <v>-0</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -3455,30 +3455,30 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Falkland Islands (Malvinas) / United Kingdom</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>365</v>
+        <v>-74</v>
       </c>
       <c r="H91" t="n">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3489,30 +3489,30 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="H92" t="n">
-        <v>5350</v>
+        <v>324</v>
       </c>
       <c r="I92" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K92" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="L92" t="n">
-        <v>2073</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93">
@@ -3523,30 +3523,30 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Henan / China</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="H93" t="n">
-        <v>1274</v>
+        <v>74</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>-0</v>
       </c>
       <c r="J93" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -3557,30 +3557,30 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="H94" t="n">
-        <v>15</v>
+        <v>1479</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="95">
@@ -3591,30 +3591,30 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Channel Islands / United Kingdom</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="H95" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L95" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3625,30 +3625,30 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="H96" t="n">
-        <v>20</v>
+        <v>2995</v>
       </c>
       <c r="I96" t="n">
-        <v>-0</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K96" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -3659,27 +3659,27 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -3693,27 +3693,27 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -3727,30 +3727,30 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>-2</v>
+        <v>10902</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>78167</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2640</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>10328</v>
       </c>
       <c r="K99" t="n">
-        <v>-1</v>
+        <v>3589</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>19337</v>
       </c>
     </row>
     <row r="100">
@@ -3761,30 +3761,30 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Jiangxi / China</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>513</v>
+        <v>92</v>
       </c>
       <c r="H100" t="n">
-        <v>14498</v>
+        <v>937</v>
       </c>
       <c r="I100" t="n">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="L100" t="n">
-        <v>5215</v>
+        <v>935</v>
       </c>
     </row>
     <row r="101">
@@ -3795,30 +3795,30 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>-0</v>
+        <v>77</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="102">
@@ -3829,30 +3829,30 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Curacao / Netherlands</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H102" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>-0</v>
       </c>
       <c r="L102" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3863,27 +3863,27 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -3897,30 +3897,30 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Queensland / Australia</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="H104" t="n">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="L104" t="n">
-        <v>738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3931,30 +3931,30 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Guangxi / China</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>-3</v>
+        <v>70</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="I105" t="n">
-        <v>-0</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106">
@@ -3965,27 +3965,27 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>269</v>
+        <v>-30</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>67</v>
+        <v>-6</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -3999,30 +3999,30 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="H107" t="n">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="L107" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4033,30 +4033,30 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Macau / China</t>
+          <t>Aruba / Netherlands</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="H108" t="n">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I108" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="L108" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -4067,27 +4067,27 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Holy See</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -4101,30 +4101,30 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Liaoning / China</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I110" t="n">
-        <v>-0</v>
+        <v>-3</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4135,30 +4135,30 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="n">
+        <v>102</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>122</v>
+      </c>
+      <c r="H111" t="n">
+        <v>335</v>
+      </c>
+      <c r="I111" t="n">
         <v>3</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Andorra</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
@@ -4169,27 +4169,27 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -4203,27 +4203,27 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>-8</v>
+        <v>62</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -4237,27 +4237,27 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>-36</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -4271,30 +4271,30 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>334</v>
+        <v>21</v>
       </c>
       <c r="H115" t="n">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>13</v>
+        <v>-0</v>
       </c>
       <c r="J115" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="L115" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4305,30 +4305,30 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Gibraltar / United Kingdom</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K116" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -4339,30 +4339,30 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="n">
+        <v>102</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Saint Pierre and Miquelon / France</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
         <v>103</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>561</v>
-      </c>
       <c r="H117" t="n">
-        <v>1419</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>41</v>
+        <v>-0</v>
       </c>
       <c r="J117" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="L117" t="n">
-        <v>638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4373,30 +4373,30 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="H118" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>13</v>
+        <v>-0</v>
       </c>
       <c r="J118" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4407,30 +4407,30 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H119" t="n">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4441,30 +4441,30 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hainan / China</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H120" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>5</v>
+        <v>-0</v>
       </c>
       <c r="L120" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4479,26 +4479,26 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Zhejiang / China</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>-5</v>
+        <v>29</v>
       </c>
       <c r="H121" t="n">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -4509,30 +4509,30 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>566</v>
+        <v>-3</v>
       </c>
       <c r="H122" t="n">
-        <v>65111</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>318</v>
+        <v>-1</v>
       </c>
       <c r="L122" t="n">
-        <v>4799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4543,30 +4543,30 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>436</v>
+        <v>67</v>
       </c>
       <c r="H123" t="n">
-        <v>9887</v>
+        <v>31</v>
       </c>
       <c r="I123" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="L123" t="n">
-        <v>5567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4577,30 +4577,30 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Western Australia / Australia</t>
+          <t>Anhui / China</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="H124" t="n">
-        <v>546</v>
+        <v>990</v>
       </c>
       <c r="I124" t="n">
+        <v>4</v>
+      </c>
+      <c r="J124" t="n">
         <v>6</v>
       </c>
-      <c r="J124" t="n">
-        <v>7</v>
-      </c>
       <c r="K124" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="L124" t="n">
-        <v>451</v>
+        <v>984</v>
       </c>
     </row>
     <row r="125">
@@ -4611,27 +4611,27 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Congo (Brazzaville)</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="H125" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K125" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L125" t="n">
         <v>2</v>
@@ -4645,30 +4645,30 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Guizhou / China</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="H126" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L126" t="n">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -4679,30 +4679,30 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>South Australia / Australia</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="H127" t="n">
-        <v>438</v>
+        <v>17</v>
       </c>
       <c r="I127" t="n">
-        <v>8</v>
+        <v>-0</v>
       </c>
       <c r="J127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="L127" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4713,30 +4713,30 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Hebei / China</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H128" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4747,30 +4747,30 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I129" t="n">
-        <v>-0</v>
+        <v>5</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>-0</v>
+        <v>14</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -4781,27 +4781,27 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Nova Scotia / Canada</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>222</v>
+        <v>-50</v>
       </c>
       <c r="H130" t="n">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="J130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>17</v>
+        <v>-7</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -4815,27 +4815,27 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="H131" t="n">
-        <v>138078</v>
+        <v>44</v>
       </c>
       <c r="I131" t="n">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>21787</v>
+        <v>3</v>
       </c>
       <c r="K131" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -4849,18 +4849,18 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Queensland / Australia</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132" t="n">
         <v>-0</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4883,15 +4883,15 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -4917,27 +4917,27 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -4951,30 +4951,30 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Zhejiang / China</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1268</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="136">
@@ -4985,30 +4985,30 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>French Polynesia / France</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H136" t="n">
-        <v>39</v>
+        <v>1160</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K136" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
@@ -5019,27 +5019,27 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -5053,27 +5053,27 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="H138" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -5087,30 +5087,30 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Tianjin / China</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>52</v>
+      </c>
+      <c r="H139" t="n">
+        <v>91</v>
+      </c>
+      <c r="I139" t="n">
         <v>-1</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -5121,30 +5121,30 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Shanghai / China</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H140" t="n">
-        <v>182</v>
+        <v>4126</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141">
@@ -5155,27 +5155,27 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Cayman Islands / United Kingdom</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>-0</v>
+        <v>5</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -5189,30 +5189,30 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="H142" t="n">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L142" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -5223,30 +5223,30 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Nova Scotia / Canada</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="H143" t="n">
-        <v>384</v>
+        <v>127</v>
       </c>
       <c r="I143" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="L143" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5257,27 +5257,27 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
@@ -5291,30 +5291,30 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Qinghai / China</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>387</v>
+        <v>7</v>
       </c>
       <c r="H145" t="n">
-        <v>11781</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>89</v>
+        <v>-2</v>
       </c>
       <c r="J145" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>131</v>
+        <v>-2</v>
       </c>
       <c r="L145" t="n">
-        <v>2507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5325,15 +5325,15 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -5359,30 +5359,30 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H147" t="n">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="I147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -5393,30 +5393,30 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Henan / China</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H148" t="n">
+        <v>14</v>
+      </c>
+      <c r="I148" t="n">
         <v>5</v>
       </c>
-      <c r="I148" t="n">
+      <c r="J148" t="n">
         <v>2</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
       <c r="K148" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -5427,30 +5427,30 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="n">
+        <v>63</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>68</v>
+      </c>
+      <c r="H149" t="n">
+        <v>177</v>
+      </c>
+      <c r="I149" t="n">
         <v>5</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K149" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -5461,30 +5461,30 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Shandong / China</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>488</v>
+        <v>26</v>
       </c>
       <c r="H150" t="n">
-        <v>2047</v>
+        <v>130</v>
       </c>
       <c r="I150" t="n">
-        <v>42</v>
+        <v>-2</v>
       </c>
       <c r="J150" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>1232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5495,30 +5495,30 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Victoria / Australia</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>-12</v>
+        <v>128</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1268</v>
       </c>
       <c r="I151" t="n">
-        <v>-0</v>
+        <v>7</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>926</v>
       </c>
     </row>
     <row r="152">
@@ -5529,27 +5529,27 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I152" t="n">
-        <v>-0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -5563,30 +5563,30 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
+        <v>92</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sichuan / China</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>116</v>
+      </c>
+      <c r="H153" t="n">
+        <v>561</v>
+      </c>
+      <c r="I153" t="n">
         <v>4</v>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>10</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K153" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154">
@@ -5597,30 +5597,30 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K154" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155">
@@ -5631,30 +5631,30 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Jilin / China</t>
+          <t>Aruba / Netherlands</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>415</v>
+        <v>8</v>
       </c>
       <c r="H155" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>159</v>
+        <v>-0</v>
       </c>
       <c r="L155" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -5665,30 +5665,30 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Faroe Islands / Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>396</v>
+        <v>-7</v>
       </c>
       <c r="H156" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>21</v>
+        <v>-0</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>64</v>
+        <v>-3</v>
       </c>
       <c r="L156" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -5699,30 +5699,30 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Jilin / China</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H157" t="n">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K157" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L157" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -5733,27 +5733,27 @@
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="n">
+        <v>33</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>59</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>4</v>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>British Virgin Islands / United Kingdom</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>8</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
       <c r="J158" t="n">
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>-0</v>
+        <v>12</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -5767,30 +5767,30 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="n">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Greenland / Denmark</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>457</v>
+        <v>21</v>
       </c>
       <c r="H159" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="J159" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>117</v>
+        <v>-3</v>
       </c>
       <c r="L159" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -5801,27 +5801,27 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H160" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -5835,30 +5835,30 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>New South Wales / Australia</t>
+          <t>New Caledonia / France</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H161" t="n">
-        <v>1791</v>
+        <v>18</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="J161" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="L161" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162">
@@ -5869,30 +5869,30 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>-3</v>
+        <v>73</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I162" t="n">
-        <v>-0</v>
+        <v>4</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163">
@@ -5903,30 +5903,30 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Nova Scotia / Canada</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>-11</v>
+        <v>53</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I163" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K163" t="n">
-        <v>-0</v>
+        <v>8</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -5937,27 +5937,27 @@
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H164" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -5971,27 +5971,27 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Ontario / Canada</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>-6</v>
+        <v>53</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>-0</v>
+        <v>8</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -6005,30 +6005,30 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Qinghai / China</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="H166" t="n">
-        <v>483</v>
+        <v>18</v>
       </c>
       <c r="I166" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J166" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="L166" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -6039,30 +6039,30 @@
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>253</v>
+        <v>-1</v>
       </c>
       <c r="H167" t="n">
-        <v>988197</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="J167" t="n">
-        <v>56259</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>131</v>
+        <v>-3</v>
       </c>
       <c r="L167" t="n">
-        <v>111424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6073,30 +6073,30 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>South Australia / Australia</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K168" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169">
@@ -6107,27 +6107,27 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>-3</v>
+        <v>64</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-0</v>
+        <v>4</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -6141,30 +6141,30 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Guangxi / China</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="H170" t="n">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
@@ -6175,30 +6175,30 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Saskatchewan / Canada</t>
+          <t>Congo (Brazzaville)</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I171" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K171" t="n">
-        <v>-0</v>
+        <v>13</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -6209,27 +6209,27 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="L172" t="n">
         <v>0</v>
@@ -6243,30 +6243,30 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Shandong / China</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H173" t="n">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L173" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -6277,30 +6277,30 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Hainan / China</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H174" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
       </c>
       <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
         <v>6</v>
       </c>
-      <c r="K174" t="n">
-        <v>31</v>
-      </c>
       <c r="L174" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6311,18 +6311,18 @@
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="H175" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -6331,10 +6331,10 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6345,30 +6345,30 @@
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Heilongjiang / China</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>390</v>
+        <v>65</v>
       </c>
       <c r="H176" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="I176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
         <v>13</v>
       </c>
-      <c r="K176" t="n">
-        <v>143</v>
-      </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6379,27 +6379,27 @@
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Northwest Territories / Canada</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>20</v>
+        <v>-45</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="L177" t="n">
         <v>0</v>
@@ -6413,30 +6413,30 @@
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Shaanxi / China</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="H178" t="n">
-        <v>23430</v>
+        <v>15</v>
       </c>
       <c r="I178" t="n">
-        <v>87</v>
+        <v>-2</v>
       </c>
       <c r="J178" t="n">
-        <v>1328</v>
+        <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>91</v>
+        <v>-2</v>
       </c>
       <c r="L178" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -6447,21 +6447,21 @@
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6481,30 +6481,30 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Newfoundland and Labrador / Canada</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H180" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="J180" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>33</v>
+        <v>-0</v>
       </c>
       <c r="L180" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6515,30 +6515,30 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>40</v>
+        <v>812</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>19262</v>
       </c>
       <c r="I181" t="n">
-        <v>-0</v>
+        <v>134</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="K181" t="n">
-        <v>10</v>
+        <v>447</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="182">
@@ -6549,30 +6549,30 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>West Bank and Gaza</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="H182" t="n">
-        <v>254</v>
+        <v>2369</v>
       </c>
       <c r="I182" t="n">
         <v>5</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K182" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="L182" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183">
@@ -6583,30 +6583,30 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Shaanxi / China</t>
+          <t>St Martin / France</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>294</v>
+        <v>-6</v>
       </c>
       <c r="H183" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>103</v>
+        <v>-2</v>
       </c>
       <c r="L183" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6617,27 +6617,27 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-3</v>
+        <v>92</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I184" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L184" t="n">
         <v>0</v>
@@ -6651,30 +6651,30 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Xinjiang / China</t>
         </is>
       </c>
       <c r="G185" t="n">
+        <v>86</v>
+      </c>
+      <c r="H185" t="n">
+        <v>76</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K185" t="n">
         <v>13</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-0</v>
-      </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186">
@@ -6685,27 +6685,27 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L186" t="n">
         <v>0</v>
@@ -6719,30 +6719,30 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Shandong / China</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>337</v>
+        <v>31</v>
       </c>
       <c r="H187" t="n">
-        <v>778</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="L187" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -6753,30 +6753,30 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Western Sahara</t>
+          <t>Hebei / China</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K188" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189">
@@ -6787,30 +6787,30 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>8698</v>
       </c>
       <c r="I189" t="n">
-        <v>-0</v>
+        <v>30</v>
       </c>
       <c r="J189" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="K189" t="n">
-        <v>-1</v>
+        <v>172</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="190">
@@ -6821,30 +6821,30 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Hebei / China</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="H190" t="n">
-        <v>318</v>
+        <v>696</v>
       </c>
       <c r="I190" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K190" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="L190" t="n">
-        <v>307</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -6855,30 +6855,30 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H191" t="n">
-        <v>1133</v>
+        <v>728</v>
       </c>
       <c r="I191" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J191" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K191" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L191" t="n">
-        <v>256</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192">
@@ -6889,27 +6889,27 @@
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Saint Pierre and Miquelon / France</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="L192" t="n">
         <v>0</v>
@@ -6923,27 +6923,27 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5</v>
+        <v>-28</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="L193" t="n">
         <v>0</v>
@@ -6957,30 +6957,30 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>318</v>
+        <v>52</v>
       </c>
       <c r="H194" t="n">
-        <v>98</v>
+        <v>914</v>
       </c>
       <c r="I194" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K194" t="n">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="L194" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -6991,15 +6991,15 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="L195" t="n">
         <v>0</v>
@@ -7025,27 +7025,27 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>11</v>
+        <v>-16</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="L196" t="n">
         <v>0</v>
@@ -7059,27 +7059,27 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Saskatchewan / Canada</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="H197" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>10</v>
+        <v>-0</v>
       </c>
       <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
         <v>4</v>
-      </c>
-      <c r="K197" t="n">
-        <v>9</v>
       </c>
       <c r="L197" t="n">
         <v>0</v>
@@ -7093,30 +7093,30 @@
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>British Columbia / Canada</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H198" t="n">
-        <v>725</v>
+        <v>2776</v>
       </c>
       <c r="I198" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="K198" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L198" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="199">
@@ -7127,30 +7127,30 @@
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="H199" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="L199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7161,30 +7161,30 @@
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H200" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K200" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -7195,15 +7195,15 @@
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -7229,30 +7229,30 @@
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>493</v>
+        <v>-76</v>
       </c>
       <c r="H202" t="n">
-        <v>1781</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>37</v>
+        <v>-3</v>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>140</v>
+        <v>-9</v>
       </c>
       <c r="L202" t="n">
-        <v>755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -7263,27 +7263,27 @@
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Newfoundland and Labrador / Canada</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="H203" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L203" t="n">
         <v>0</v>
@@ -7297,30 +7297,30 @@
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>-4</v>
+        <v>88</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>5467</v>
       </c>
       <c r="I204" t="n">
-        <v>-0</v>
+        <v>6</v>
       </c>
       <c r="J204" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K204" t="n">
-        <v>-0</v>
+        <v>14</v>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
     </row>
     <row r="205">
@@ -7331,27 +7331,27 @@
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Heilongjiang / China</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H205" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
         <v>5</v>
-      </c>
-      <c r="J205" t="n">
-        <v>1</v>
-      </c>
-      <c r="K205" t="n">
-        <v>10</v>
       </c>
       <c r="L205" t="n">
         <v>0</v>
@@ -7365,27 +7365,27 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>British Columbia / Canada</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="H206" t="n">
-        <v>1445</v>
+        <v>15</v>
       </c>
       <c r="I206" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L206" t="n">
         <v>0</v>
@@ -7399,30 +7399,30 @@
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Inner Mongolia / China</t>
+          <t>Jilin / China</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="H207" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
       </c>
       <c r="K207" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L207" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="208">
@@ -7433,30 +7433,30 @@
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H208" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -7467,27 +7467,27 @@
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>South Australia / Australia</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>20</v>
+        <v>-88</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>-0</v>
+        <v>-7</v>
       </c>
       <c r="L209" t="n">
         <v>0</v>
@@ -7501,30 +7501,30 @@
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Henan / China</t>
+          <t>Zhejiang / China</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H210" t="n">
-        <v>1033</v>
+        <v>1203</v>
       </c>
       <c r="I210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J210" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>679</v>
       </c>
     </row>
     <row r="211">
@@ -7535,30 +7535,30 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H211" t="n">
-        <v>2473</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>13</v>
+        <v>-0</v>
       </c>
       <c r="J211" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L211" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -7569,30 +7569,30 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Tianjin / China</t>
+          <t>Queensland / Australia</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H212" t="n">
-        <v>67</v>
+        <v>907</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J212" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K212" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L212" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213">
@@ -7603,27 +7603,27 @@
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Northern Territory / Australia</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I213" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="L213" t="n">
         <v>0</v>
@@ -7637,30 +7637,30 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="H214" t="n">
-        <v>5926</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="J214" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="L214" t="n">
-        <v>822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -7671,30 +7671,30 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Bermuda / United Kingdom</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="H215" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>15</v>
+        <v>-0</v>
       </c>
       <c r="L215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -7705,27 +7705,27 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="L216" t="n">
         <v>0</v>
@@ -7739,30 +7739,30 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Hebei / China</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>53</v>
+        <v>-120</v>
       </c>
       <c r="H217" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>12</v>
+        <v>-17</v>
       </c>
       <c r="L217" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -7773,30 +7773,30 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>19</v>
+        <v>51210</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>87026</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>3279</v>
       </c>
       <c r="J218" t="n">
-        <v>0</v>
+        <v>5481</v>
       </c>
       <c r="K218" t="n">
-        <v>3</v>
+        <v>33717</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>64843</v>
       </c>
     </row>
     <row r="219">
@@ -7807,15 +7807,15 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="L219" t="n">
         <v>0</v>
@@ -7841,27 +7841,27 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Northwest Territories / Canada</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>9</v>
+        <v>-23</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="L220" t="n">
         <v>0</v>
@@ -7875,30 +7875,30 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="H221" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="L221" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -7909,30 +7909,30 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Guizhou / China</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H222" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
         <v>-0</v>
       </c>
-      <c r="J222" t="n">
-        <v>1</v>
-      </c>
-      <c r="K222" t="n">
-        <v>5</v>
-      </c>
       <c r="L222" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -7943,27 +7943,27 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Channel Islands / United Kingdom</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>223</v>
+        <v>193758</v>
       </c>
       <c r="H223" t="n">
-        <v>141</v>
+        <v>171253</v>
       </c>
       <c r="I223" t="n">
-        <v>7</v>
+        <v>29802</v>
       </c>
       <c r="J223" t="n">
-        <v>2</v>
+        <v>26771</v>
       </c>
       <c r="K223" t="n">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
@@ -7977,30 +7977,30 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Jilin / China</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>505</v>
+        <v>27</v>
       </c>
       <c r="H224" t="n">
-        <v>2066</v>
+        <v>14</v>
       </c>
       <c r="I224" t="n">
-        <v>32</v>
+        <v>-4</v>
       </c>
       <c r="J224" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>166</v>
+        <v>-1</v>
       </c>
       <c r="L224" t="n">
-        <v>929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -8011,18 +8011,18 @@
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L225" t="n">
         <v>0</v>
@@ -8045,30 +8045,30 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="H226" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L226" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -8079,30 +8079,30 @@
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Cayman Islands / United Kingdom</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>80</v>
+        <v>-49</v>
       </c>
       <c r="H227" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" t="n">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="L227" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -8113,30 +8113,30 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Xinjiang / China</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>-4</v>
+        <v>95</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J228" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K228" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L228" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229">
@@ -8147,30 +8147,30 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>162</v>
+        <v>-0</v>
       </c>
       <c r="H229" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K229" t="n">
-        <v>34</v>
+        <v>-2</v>
       </c>
       <c r="L229" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -8181,27 +8181,27 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
+        <v>52</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>64</v>
+      </c>
+      <c r="H230" t="n">
         <v>2</v>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>2</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
       </c>
       <c r="K230" t="n">
-        <v>-0</v>
+        <v>12</v>
       </c>
       <c r="L230" t="n">
         <v>0</v>
@@ -8215,30 +8215,30 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>7497</v>
       </c>
       <c r="I231" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K231" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
     </row>
     <row r="232">
@@ -8249,30 +8249,30 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
+        <v>65</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>71</v>
+      </c>
+      <c r="H232" t="n">
+        <v>165</v>
+      </c>
+      <c r="I232" t="n">
+        <v>5</v>
+      </c>
+      <c r="J232" t="n">
         <v>3</v>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Holy See</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
-      <c r="J232" t="n">
-        <v>0</v>
-      </c>
       <c r="K232" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -8283,30 +8283,30 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Henan / China</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H233" t="n">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
       </c>
       <c r="J233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L233" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
@@ -8317,30 +8317,30 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="n">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Turks and Caicos Islands / United Kingdom</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>568</v>
+        <v>18</v>
       </c>
       <c r="H234" t="n">
-        <v>42505</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="J234" t="n">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>372</v>
+        <v>2</v>
       </c>
       <c r="L234" t="n">
-        <v>11775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -8351,27 +8351,27 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>26</v>
+        <v>-21</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="L235" t="n">
         <v>0</v>
@@ -8385,21 +8385,21 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Anguilla / United Kingdom</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -8419,27 +8419,27 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Turks and Caicos Islands / United Kingdom</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-4</v>
+        <v>39</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="L237" t="n">
         <v>0</v>
@@ -8453,30 +8453,30 @@
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Curacao / Netherlands</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>8904</v>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J238" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K238" t="n">
-        <v>-0</v>
+        <v>16</v>
       </c>
       <c r="L238" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
     </row>
     <row r="239">
@@ -8487,30 +8487,30 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="I239" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J239" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K239" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L239" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240">
@@ -8521,30 +8521,30 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Turks and Caicos Islands / United Kingdom</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="H240" t="n">
-        <v>2279</v>
+        <v>11</v>
       </c>
       <c r="I240" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J240" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K240" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
@@ -8555,30 +8555,30 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Cayman Islands / United Kingdom</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>130</v>
+        <v>-23</v>
       </c>
       <c r="H241" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="n">
-        <v>19</v>
+        <v>-6</v>
       </c>
       <c r="L241" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -8589,27 +8589,27 @@
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Hainan / China</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>21</v>
+        <v>-66</v>
       </c>
       <c r="H242" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="L242" t="n">
         <v>0</v>
@@ -8623,30 +8623,30 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>85</v>
+        <v>-12</v>
       </c>
       <c r="H243" t="n">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>4</v>
+        <v>-0</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="L243" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -8657,27 +8657,27 @@
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Northwest Territories / Canada</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>-0</v>
+        <v>-4</v>
       </c>
       <c r="L244" t="n">
         <v>0</v>
@@ -8691,30 +8691,30 @@
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Jiangsu / China</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H245" t="n">
-        <v>341</v>
+        <v>5862</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J245" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K245" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L245" t="n">
-        <v>23</v>
+        <v>931</v>
       </c>
     </row>
     <row r="246">
@@ -8725,30 +8725,30 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="H246" t="n">
-        <v>42</v>
+        <v>1399</v>
       </c>
       <c r="I246" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J246" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="K246" t="n">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="L246" t="n">
-        <v>0</v>
+        <v>594</v>
       </c>
     </row>
     <row r="247">
@@ -8759,30 +8759,30 @@
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>French Polynesia / France</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>260</v>
+        <v>-29</v>
       </c>
       <c r="H247" t="n">
-        <v>8211</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>39</v>
+        <v>-3</v>
       </c>
       <c r="J247" t="n">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>133</v>
+        <v>-3</v>
       </c>
       <c r="L247" t="n">
-        <v>1002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -8793,30 +8793,30 @@
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Zhejiang / China</t>
+          <t>Northwest Territories / Canada</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="H248" t="n">
-        <v>1267</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="J248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>153</v>
+        <v>-5</v>
       </c>
       <c r="L248" t="n">
-        <v>1235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -8827,30 +8827,30 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>South Australia / Australia</t>
+          <t>Faroe Islands / Denmark</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="H249" t="n">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I249" t="n">
-        <v>-0</v>
+        <v>-2</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L249" t="n">
-        <v>3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="250">
@@ -8861,30 +8861,30 @@
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="n">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Falkland Islands (Malvinas) / United Kingdom</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>256</v>
+        <v>-196</v>
       </c>
       <c r="H250" t="n">
-        <v>166152</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="J250" t="n">
-        <v>6993</v>
+        <v>0</v>
       </c>
       <c r="K250" t="n">
-        <v>134</v>
+        <v>-7</v>
       </c>
       <c r="L250" t="n">
-        <v>132700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -8895,30 +8895,30 @@
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c r="H251" t="n">
-        <v>105792</v>
+        <v>26</v>
       </c>
       <c r="I251" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="J251" t="n">
-        <v>12428</v>
+        <v>0</v>
       </c>
       <c r="K251" t="n">
-        <v>150</v>
+        <v>-0</v>
       </c>
       <c r="L251" t="n">
-        <v>15729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -8929,30 +8929,30 @@
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Holy See</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="H252" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I252" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
       </c>
       <c r="K252" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
@@ -8963,30 +8963,30 @@
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Shanxi / China</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="H253" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L253" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -8997,27 +8997,27 @@
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Heilongjiang / China</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>291</v>
+        <v>-33</v>
       </c>
       <c r="H254" t="n">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="J254" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K254" t="n">
-        <v>100</v>
+        <v>-4</v>
       </c>
       <c r="L254" t="n">
         <v>0</v>
@@ -9031,30 +9031,30 @@
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Sint Maarten / Netherlands</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="H255" t="n">
-        <v>2170</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J255" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="L255" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -9065,30 +9065,30 @@
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>378</v>
+        <v>60</v>
       </c>
       <c r="H256" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J256" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="L256" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -9099,30 +9099,30 @@
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H257" t="n">
-        <v>5</v>
+        <v>1375</v>
       </c>
       <c r="I257" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J257" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K257" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="L257" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
     </row>
     <row r="258">
@@ -9133,30 +9133,30 @@
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="n">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>436</v>
+        <v>17</v>
       </c>
       <c r="H258" t="n">
-        <v>850</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K258" t="n">
-        <v>127</v>
+        <v>-0</v>
       </c>
       <c r="L258" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -9167,30 +9167,30 @@
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H259" t="n">
-        <v>648</v>
+        <v>7276</v>
       </c>
       <c r="I259" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J259" t="n">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="K259" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="L259" t="n">
-        <v>435</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="260">
@@ -9201,30 +9201,30 @@
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="H260" t="n">
-        <v>187327</v>
+        <v>1815</v>
       </c>
       <c r="I260" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="J260" t="n">
-        <v>25085</v>
+        <v>43</v>
       </c>
       <c r="K260" t="n">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="L260" t="n">
-        <v>54543</v>
+        <v>206</v>
       </c>
     </row>
     <row r="261">
@@ -9235,30 +9235,30 @@
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="H261" t="n">
-        <v>142</v>
+        <v>1398</v>
       </c>
       <c r="I261" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="J261" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K261" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L261" t="n">
-        <v>4</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
